--- a/biology/Médecine/Compression_médullaire/Compression_médullaire.xlsx
+++ b/biology/Médecine/Compression_médullaire/Compression_médullaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compression_m%C3%A9dullaire</t>
+          <t>Compression_médullaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une compression médullaire peut être décrite comme une déformation de la moelle spinale due à un hématome, une tumeur ou une simple hernie discale.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compression_m%C3%A9dullaire</t>
+          <t>Compression_médullaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,12 @@
           <t>Sémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La compression médullaire est révélée par une triade syndromique.
-Syndrome rachidien
-Le syndrome rachidien peut être observé en cas de compression médullaire. Il associe rachialgies, douleurs dans le dos ; raideur segmentaire + faux torticolis - douleur à la percussion des épineuses.
-Syndrome lésionnel
-Le syndrome lésionnel peut comporter des paresthésies ou des douleurs, ou bien un déficit sensitif ou moteur dans le territoire d'une racine nerveuse, ou une douleur à la percussion paravertébrale, irradiant le long d'un trajet radiculaire, appelé « signe de la sonnette ».
-Syndrome sous-lésionnel</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La compression médullaire est révélée par une triade syndromique.
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compression_m%C3%A9dullaire</t>
+          <t>Compression_médullaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,54 +557,203 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Sémiologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syndrome rachidien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome rachidien peut être observé en cas de compression médullaire. Il associe rachialgies, douleurs dans le dos ; raideur segmentaire + faux torticolis - douleur à la percussion des épineuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compression_médullaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Compression_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sémiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Syndrome lésionnel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome lésionnel peut comporter des paresthésies ou des douleurs, ou bien un déficit sensitif ou moteur dans le territoire d'une racine nerveuse, ou une douleur à la percussion paravertébrale, irradiant le long d'un trajet radiculaire, appelé « signe de la sonnette ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compression_médullaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Compression_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Causes extradurales
-Métastases néoplasiques vertébrales
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Causes extradurales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Métastases néoplasiques vertébrales
 Tumeurs vertébrales primitive bénignes (hémangiome, chondrome...) ou maligne (sarcome)
 Myélopathie cervicoarthrosique
 Spondylodiscite et épidurite infectieuse à pyogène
 Hernie discale
-Hématome épidural
-Causes intradurales extramédullaires
-Méningiome
+Hématome épidural</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compression_médullaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Compression_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Causes intradurales extramédullaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Méningiome
 Neurinome
-Arachnoïdite
-Causes intramédullaires
-Épendymomes, astrocytomes
+Arachnoïdite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Compression_médullaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Compression_m%C3%A9dullaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Causes intramédullaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Épendymomes, astrocytomes
 Malformations vasculaires
 Syringomyélie</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compression_m%C3%A9dullaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Compression_médullaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Compression_m%C3%A9dullaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Urgence thérapeutique nécessitant un transfert en service de neurochirurgie pour décompression.
 </t>
